--- a/Tableau_Excel/Sachins stats.xlsx
+++ b/Tableau_Excel/Sachins stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Datasets\Tableau_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D8235C-3159-4C3F-A68F-43D28D5E1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D3CD4-2BFD-45EE-B67C-278B2F486537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="516">
   <si>
     <t>Match</t>
   </si>
@@ -1564,6 +1564,15 @@
   </si>
   <si>
     <t>c Younis Khan b Saeed Ajmal</t>
+  </si>
+  <si>
+    <t>No of centuries</t>
+  </si>
+  <si>
+    <t>No of half-centuries</t>
+  </si>
+  <si>
+    <t>Cleaned Runs</t>
   </si>
 </sst>
 </file>
@@ -1582,6 +1591,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1616,11 +1626,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1901,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I464"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,9 +1929,11 @@
     <col min="7" max="7" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1948,8 +1961,12 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1975,8 +1992,19 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>IFERROR(IF(RIGHT(H2, 1) = "*", LEFT(H2, LEN(H2) - 1), IF(OR(H2 &lt; 0, H2 &gt; 500), 0, H2)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(J:J,"&gt;=100")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2002,8 +2030,19 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">IFERROR(IF(RIGHT(H3, 1) = "*", LEFT(H3, LEN(H3) - 1), IF(OR(H3 &lt; 0, H3 &gt; 500), 0, H3)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>514</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(J:J,"&gt;=50")</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2029,8 +2068,12 @@
       <c r="I4" s="2">
         <v>92.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2056,8 +2099,12 @@
       <c r="I5" s="2">
         <v>83.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2083,8 +2130,12 @@
       <c r="I6" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2110,8 +2161,12 @@
       <c r="I7" s="2">
         <v>54.29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2137,8 +2192,12 @@
       <c r="I8" s="2">
         <v>119.23</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2164,8 +2223,12 @@
       <c r="I9" s="2">
         <v>163.63999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2191,8 +2254,12 @@
       <c r="I10" s="2">
         <v>129.27000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2218,8 +2285,12 @@
       <c r="I11" s="2">
         <v>103.45</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2243,8 +2314,12 @@
       <c r="I12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2270,8 +2345,12 @@
       <c r="I13" s="2">
         <v>36.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2297,8 +2376,12 @@
       <c r="I14" s="2">
         <v>75.709999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2324,8 +2407,12 @@
       <c r="I15" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2351,8 +2438,12 @@
       <c r="I16" s="2">
         <v>81.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2378,8 +2469,12 @@
       <c r="I17" s="2">
         <v>40.74</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2405,8 +2500,12 @@
       <c r="I18" s="2">
         <v>128.94999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2432,8 +2531,12 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2459,8 +2562,12 @@
       <c r="I20" s="2">
         <v>84.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2486,8 +2593,12 @@
       <c r="I21" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2515,8 +2626,12 @@
       <c r="I22" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2544,8 +2659,12 @@
       <c r="I23" s="2">
         <v>11.11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2571,8 +2690,12 @@
       <c r="I24" s="2">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2598,8 +2721,12 @@
       <c r="I25" s="2">
         <v>53.27</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2625,8 +2752,12 @@
       <c r="I26" s="2">
         <v>84.21</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2652,8 +2783,12 @@
       <c r="I27" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2679,8 +2814,12 @@
       <c r="I28" s="2">
         <v>60.63</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2708,8 +2847,12 @@
       <c r="I29" s="2">
         <v>70.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2737,8 +2880,12 @@
       <c r="I30" s="2">
         <v>64.77</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2766,8 +2913,12 @@
       <c r="I31" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2795,8 +2946,12 @@
       <c r="I32" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2824,8 +2979,12 @@
       <c r="I33" s="2">
         <v>79.55</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2849,8 +3008,12 @@
       <c r="I34" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2876,8 +3039,12 @@
       <c r="I35" s="2">
         <v>57.89</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2905,8 +3072,12 @@
       <c r="I36" s="2">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2932,8 +3103,12 @@
       <c r="I37" s="2">
         <v>105.19</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2959,8 +3134,12 @@
       <c r="I38" s="2">
         <v>36.36</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2986,8 +3165,12 @@
       <c r="I39" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3013,8 +3196,12 @@
       <c r="I40" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3040,8 +3227,12 @@
       <c r="I41" s="2">
         <v>69.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3069,8 +3260,12 @@
       <c r="I42" s="2">
         <v>55.56</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3098,8 +3293,12 @@
       <c r="I43" s="2">
         <v>27.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3127,8 +3326,12 @@
       <c r="I44" s="2">
         <v>91.67</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3156,8 +3359,12 @@
       <c r="I45" s="2">
         <v>47.73</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3185,8 +3392,12 @@
       <c r="I46" s="2">
         <v>61.54</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3214,8 +3425,12 @@
       <c r="I47" s="2">
         <v>58.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3243,8 +3458,12 @@
       <c r="I48" s="2">
         <v>55.26</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3270,8 +3489,12 @@
       <c r="I49" s="2">
         <v>101.23</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3297,8 +3520,12 @@
       <c r="I50" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3324,8 +3551,12 @@
       <c r="I51" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3351,8 +3582,12 @@
       <c r="I52" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3378,8 +3613,12 @@
       <c r="I53" s="2">
         <v>83.33</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3405,8 +3644,12 @@
       <c r="I54" s="2">
         <v>113.33</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3432,8 +3675,12 @@
       <c r="I55" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3459,8 +3706,12 @@
       <c r="I56" s="2">
         <v>133.33000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3484,8 +3735,12 @@
       <c r="I57" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3511,8 +3766,12 @@
       <c r="I58" s="2">
         <v>53.85</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3540,8 +3799,12 @@
       <c r="I59" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3567,8 +3830,12 @@
       <c r="I60" s="2">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3594,8 +3861,12 @@
       <c r="I61" s="2">
         <v>86.67</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3621,8 +3892,12 @@
       <c r="I62" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3648,8 +3923,12 @@
       <c r="I63" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3675,8 +3954,12 @@
       <c r="I64" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3704,8 +3987,12 @@
       <c r="I65" s="2">
         <v>48.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3733,8 +4020,12 @@
       <c r="I66" s="2">
         <v>65.12</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3760,8 +4051,12 @@
       <c r="I67" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="1">IFERROR(IF(RIGHT(H67, 1) = "*", LEFT(H67, LEN(H67) - 1), IF(OR(H67 &lt; 0, H67 &gt; 500), 0, H67)), 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3787,8 +4082,12 @@
       <c r="I68" s="2">
         <v>61.11</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3814,8 +4113,12 @@
       <c r="I69" s="2">
         <v>82.54</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3841,8 +4144,12 @@
       <c r="I70" s="2">
         <v>78.95</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3868,8 +4175,12 @@
       <c r="I71" s="2">
         <v>167.35</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3895,8 +4206,12 @@
       <c r="I72" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3922,8 +4237,12 @@
       <c r="I73" s="2">
         <v>153.85</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3949,8 +4268,12 @@
       <c r="I74" s="2">
         <v>81.819999999999993</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3976,8 +4299,12 @@
       <c r="I75" s="2">
         <v>114.06</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4003,8 +4330,12 @@
       <c r="I76" s="2">
         <v>85.71</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4030,8 +4361,12 @@
       <c r="I77" s="2">
         <v>92.31</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4059,8 +4394,12 @@
       <c r="I78" s="2">
         <v>68.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4088,8 +4427,12 @@
       <c r="I79" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4117,8 +4460,12 @@
       <c r="I80" s="2">
         <v>84.62</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4144,8 +4491,12 @@
       <c r="I81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4171,8 +4522,12 @@
       <c r="I82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4198,8 +4553,12 @@
       <c r="I83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4225,8 +4584,12 @@
       <c r="I84" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4252,8 +4615,12 @@
       <c r="I85" s="2">
         <v>84.56</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4279,8 +4646,12 @@
       <c r="I86" s="2">
         <v>72.34</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4306,8 +4677,12 @@
       <c r="I87" s="2">
         <v>114.81</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4335,8 +4710,12 @@
       <c r="I88" s="2">
         <v>97.06</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4362,8 +4741,12 @@
       <c r="I89" s="2">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4389,8 +4772,12 @@
       <c r="I90" s="2">
         <v>78.569999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4416,8 +4803,12 @@
       <c r="I91" s="2">
         <v>78.36</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4443,8 +4834,12 @@
       <c r="I92" s="2">
         <v>86.67</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4470,8 +4865,12 @@
       <c r="I93" s="2">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4497,8 +4896,12 @@
       <c r="I94" s="2">
         <v>117.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4524,8 +4927,12 @@
       <c r="I95" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4551,8 +4958,12 @@
       <c r="I96" s="2">
         <v>44.44</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4578,8 +4989,12 @@
       <c r="I97" s="2">
         <v>104.67</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4605,8 +5020,12 @@
       <c r="I98" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4632,8 +5051,12 @@
       <c r="I99" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4659,8 +5082,12 @@
       <c r="I100" s="2">
         <v>76.47</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4686,8 +5113,12 @@
       <c r="I101" s="2">
         <v>63.64</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -4713,8 +5144,12 @@
       <c r="I102" s="2">
         <v>110.17</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -4740,8 +5175,12 @@
       <c r="I103" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4767,8 +5206,12 @@
       <c r="I104" s="2">
         <v>92.03</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4796,8 +5239,12 @@
       <c r="I105" s="2">
         <v>76.92</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4825,8 +5272,12 @@
       <c r="I106" s="2">
         <v>107.14</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4852,8 +5303,12 @@
       <c r="I107" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4879,8 +5334,12 @@
       <c r="I108" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4908,8 +5367,12 @@
       <c r="I109" s="2">
         <v>52.54</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4937,8 +5400,12 @@
       <c r="I110" s="2">
         <v>73.86</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4964,8 +5431,12 @@
       <c r="I111" s="2">
         <v>90.32</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4991,8 +5462,12 @@
       <c r="I112" s="2">
         <v>90.09</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5018,8 +5493,12 @@
       <c r="I113" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5045,8 +5524,12 @@
       <c r="I114" s="2">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5072,8 +5555,12 @@
       <c r="I115" s="2">
         <v>84.29</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5099,8 +5586,12 @@
       <c r="I116" s="2">
         <v>65.38</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5126,8 +5617,12 @@
       <c r="I117" s="2">
         <v>80.28</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5153,8 +5648,12 @@
       <c r="I118" s="2">
         <v>157.88999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -5180,8 +5679,12 @@
       <c r="I119" s="2">
         <v>31.58</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -5207,8 +5710,12 @@
       <c r="I120" s="2">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -5236,8 +5743,12 @@
       <c r="I121" s="2">
         <v>79.709999999999994</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -5263,8 +5774,12 @@
       <c r="I122" s="2">
         <v>86.96</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -5290,8 +5805,12 @@
       <c r="I123" s="2">
         <v>63.64</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5317,8 +5836,12 @@
       <c r="I124" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="str">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -5344,8 +5867,12 @@
       <c r="I125" s="2">
         <v>86.96</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -5371,8 +5898,12 @@
       <c r="I126" s="2">
         <v>15.38</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -5398,8 +5929,12 @@
       <c r="I127" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -5425,8 +5960,12 @@
       <c r="I128" s="2">
         <v>52.27</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -5454,8 +5993,12 @@
       <c r="I129" s="2">
         <v>137.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -5483,8 +6026,12 @@
       <c r="I130" s="2">
         <v>79.28</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -5510,8 +6057,12 @@
       <c r="I131" s="2">
         <v>68.819999999999993</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <f t="shared" ref="J131:J194" si="2">IFERROR(IF(RIGHT(H131, 1) = "*", LEFT(H131, LEN(H131) - 1), IF(OR(H131 &lt; 0, H131 &gt; 500), 0, H131)), 0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -5537,8 +6088,12 @@
       <c r="I132" s="2">
         <v>73.680000000000007</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -5566,8 +6121,12 @@
       <c r="I133" s="2">
         <v>103.33</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -5595,8 +6154,12 @@
       <c r="I134" s="2">
         <v>76.14</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -5624,8 +6187,12 @@
       <c r="I135" s="2">
         <v>90.48</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -5653,8 +6220,12 @@
       <c r="I136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -5682,8 +6253,12 @@
       <c r="I137" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -5709,8 +6284,12 @@
       <c r="I138" s="2">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -5738,8 +6317,12 @@
       <c r="I139" s="2">
         <v>58.33</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -5767,8 +6350,12 @@
       <c r="I140" s="2">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -5794,8 +6381,12 @@
       <c r="I141" s="2">
         <v>107.22</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -5823,8 +6414,12 @@
       <c r="I142" s="2">
         <v>118.52</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -5852,8 +6447,12 @@
       <c r="I143" s="2">
         <v>136.36000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -5879,8 +6478,12 @@
       <c r="I144" s="2">
         <v>86.67</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -5906,8 +6509,12 @@
       <c r="I145" s="2">
         <v>102.33</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -5933,8 +6540,12 @@
       <c r="I146" s="2">
         <v>92.86</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="str">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -5960,8 +6571,12 @@
       <c r="I147" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -5987,8 +6602,12 @@
       <c r="I148" s="2">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -6016,8 +6635,12 @@
       <c r="I149" s="2">
         <v>85.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6045,8 +6668,12 @@
       <c r="I150" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -6074,8 +6701,12 @@
       <c r="I151" s="2">
         <v>57.14</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6101,8 +6732,12 @@
       <c r="I152" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -6126,8 +6761,12 @@
       <c r="I153" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6153,8 +6792,12 @@
       <c r="I154" s="2">
         <v>133.33000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -6180,8 +6823,12 @@
       <c r="I155" s="2">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6209,8 +6856,12 @@
       <c r="I156" s="2">
         <v>96.43</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -6238,8 +6889,12 @@
       <c r="I157" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -6265,8 +6920,12 @@
       <c r="I158" s="2">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -6292,8 +6951,12 @@
       <c r="I159" s="2">
         <v>121.88</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -6319,8 +6982,12 @@
       <c r="I160" s="2">
         <v>31.48</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -6346,8 +7013,12 @@
       <c r="I161" s="2">
         <v>55.56</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -6371,8 +7042,12 @@
       <c r="I162" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -6398,8 +7073,12 @@
       <c r="I163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -6425,8 +7104,12 @@
       <c r="I164" s="2">
         <v>85.71</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -6452,8 +7135,12 @@
       <c r="I165" s="2">
         <v>79.69</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -6479,8 +7166,12 @@
       <c r="I166" s="2">
         <v>18.18</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -6506,8 +7197,12 @@
       <c r="I167" s="2">
         <v>116.67</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -6535,8 +7230,12 @@
       <c r="I168" s="2">
         <v>63.64</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -6564,8 +7263,12 @@
       <c r="I169" s="2">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -6593,8 +7296,12 @@
       <c r="I170" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -6622,8 +7329,12 @@
       <c r="I171" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -6649,8 +7360,12 @@
       <c r="I172" s="2">
         <v>95.35</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" t="str">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -6674,8 +7389,12 @@
       <c r="I173" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -6701,8 +7420,12 @@
       <c r="I174" s="2">
         <v>46.15</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -6728,8 +7451,12 @@
       <c r="I175" s="2">
         <v>71.05</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -6755,8 +7482,12 @@
       <c r="I176" s="2">
         <v>152.27000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -6782,8 +7513,12 @@
       <c r="I177" s="2">
         <v>121.79</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -6809,8 +7544,12 @@
       <c r="I178" s="2">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -6836,8 +7575,12 @@
       <c r="I179" s="2">
         <v>157.69</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -6863,8 +7606,12 @@
       <c r="I180" s="2">
         <v>72.73</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -6890,8 +7637,12 @@
       <c r="I181" s="2">
         <v>29.41</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -6917,8 +7668,12 @@
       <c r="I182" s="2">
         <v>112.36</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -6944,8 +7699,12 @@
       <c r="I183" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -6971,8 +7730,12 @@
       <c r="I184" s="2">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -7000,8 +7763,12 @@
       <c r="I185" s="2">
         <v>97.56</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7029,8 +7796,12 @@
       <c r="I186" s="2">
         <v>111.11</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -7058,8 +7829,12 @@
       <c r="I187" s="2">
         <v>65.52</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7087,8 +7862,12 @@
       <c r="I188" s="2">
         <v>109.16</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -7116,8 +7895,12 @@
       <c r="I189" s="2">
         <v>102.29</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7145,8 +7928,12 @@
       <c r="I190" s="2">
         <v>113.79</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -7174,8 +7961,12 @@
       <c r="I191" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7203,8 +7994,12 @@
       <c r="I192" s="2">
         <v>97.09</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -7232,8 +8027,12 @@
       <c r="I193" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -7261,8 +8060,12 @@
       <c r="I194" s="2">
         <v>147.22</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -7288,8 +8091,12 @@
       <c r="I195" s="2">
         <v>106.25</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195">
+        <f t="shared" ref="J195:J258" si="3">IFERROR(IF(RIGHT(H195, 1) = "*", LEFT(H195, LEN(H195) - 1), IF(OR(H195 &lt; 0, H195 &gt; 500), 0, H195)), 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -7313,8 +8120,12 @@
       <c r="I196" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -7342,8 +8153,12 @@
       <c r="I197" s="2">
         <v>97.71</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -7369,8 +8184,12 @@
       <c r="I198" s="2">
         <v>70.64</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -7396,8 +8215,12 @@
       <c r="I199" s="2">
         <v>97.69</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" t="str">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -7423,8 +8246,12 @@
       <c r="I200" s="2">
         <v>138.1</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -7450,8 +8277,12 @@
       <c r="I201" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -7479,8 +8310,12 @@
       <c r="I202" s="2">
         <v>110.16</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -7508,8 +8343,12 @@
       <c r="I203" s="2">
         <v>57.14</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -7537,8 +8376,12 @@
       <c r="I204" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -7566,8 +8409,12 @@
       <c r="I205" s="2">
         <v>105.36</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" t="str">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -7595,8 +8442,12 @@
       <c r="I206" s="2">
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -7624,8 +8475,12 @@
       <c r="I207" s="2">
         <v>91.67</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -7653,8 +8508,12 @@
       <c r="I208" s="2">
         <v>134.78</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" t="str">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -7682,8 +8541,12 @@
       <c r="I209" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -7711,8 +8574,12 @@
       <c r="I210" s="2">
         <v>121.05</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -7738,8 +8605,12 @@
       <c r="I211" s="2">
         <v>107.14</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -7765,8 +8636,12 @@
       <c r="I212" s="2">
         <v>41.67</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -7792,8 +8667,12 @@
       <c r="I213" s="2">
         <v>60.87</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -7819,8 +8698,12 @@
       <c r="I214" s="2">
         <v>138.61000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" t="str">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -7846,8 +8729,12 @@
       <c r="I215" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -7873,8 +8760,12 @@
       <c r="I216" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -7900,8 +8791,12 @@
       <c r="I217" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -7927,8 +8822,12 @@
       <c r="I218" s="2">
         <v>69.23</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -7954,8 +8853,12 @@
       <c r="I219" s="2">
         <v>72.73</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -7981,8 +8884,12 @@
       <c r="I220" s="2">
         <v>42.42</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -8010,8 +8917,12 @@
       <c r="I221" s="2">
         <v>63.79</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -8037,8 +8948,12 @@
       <c r="I222" s="2">
         <v>85.11</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -8064,8 +8979,12 @@
       <c r="I223" s="2">
         <v>118.06</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -8091,8 +9010,12 @@
       <c r="I224" s="2">
         <v>61.54</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -8118,8 +9041,12 @@
       <c r="I225" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -8145,8 +9072,12 @@
       <c r="I226" s="2">
         <v>103.23</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -8172,8 +9103,12 @@
       <c r="I227" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" t="str">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -8199,8 +9134,12 @@
       <c r="I228" s="2">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -8226,8 +9165,12 @@
       <c r="I229" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -8253,8 +9196,12 @@
       <c r="I230" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -8282,8 +9229,12 @@
       <c r="I231" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -8311,8 +9262,12 @@
       <c r="I232" s="2">
         <v>109.09</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -8340,8 +9295,12 @@
       <c r="I233" s="2">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -8367,8 +9326,12 @@
       <c r="I234" s="2">
         <v>90.29</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -8396,8 +9359,12 @@
       <c r="I235" s="2">
         <v>89.13</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -8425,8 +9392,12 @@
       <c r="I236" s="2">
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -8454,8 +9425,12 @@
       <c r="I237" s="2">
         <v>121.43</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -8481,8 +9456,12 @@
       <c r="I238" s="2">
         <v>14.29</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -8508,8 +9487,12 @@
       <c r="I239" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -8535,8 +9518,12 @@
       <c r="I240" s="2">
         <v>67.739999999999995</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -8562,8 +9549,12 @@
       <c r="I241" s="2">
         <v>42.86</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -8589,8 +9580,12 @@
       <c r="I242" s="2">
         <v>88.41</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -8616,8 +9611,12 @@
       <c r="I243" s="2">
         <v>104.49</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -8645,8 +9644,12 @@
       <c r="I244" s="2">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -8674,8 +9677,12 @@
       <c r="I245" s="2">
         <v>39.29</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -8703,8 +9710,12 @@
       <c r="I246" s="2">
         <v>55.56</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -8732,8 +9743,12 @@
       <c r="I247" s="2">
         <v>57.35</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -8761,8 +9776,12 @@
       <c r="I248" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -8790,8 +9809,12 @@
       <c r="I249" s="2">
         <v>97.89</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -8819,8 +9842,12 @@
       <c r="I250" s="2">
         <v>83.33</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -8846,8 +9873,12 @@
       <c r="I251" s="2">
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -8873,8 +9904,12 @@
       <c r="I252" s="2">
         <v>102.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -8900,8 +9935,12 @@
       <c r="I253" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -8927,8 +9966,12 @@
       <c r="I254" s="2">
         <v>83.13</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -8956,8 +9999,12 @@
       <c r="I255" s="2">
         <v>72.14</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -8985,8 +10032,12 @@
       <c r="I256" s="2">
         <v>53.33</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -9014,8 +10065,12 @@
       <c r="I257" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -9043,8 +10098,12 @@
       <c r="I258" s="2">
         <v>112.96</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -9072,8 +10131,12 @@
       <c r="I259" s="2">
         <v>45.45</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <f t="shared" ref="J259:J322" si="4">IFERROR(IF(RIGHT(H259, 1) = "*", LEFT(H259, LEN(H259) - 1), IF(OR(H259 &lt; 0, H259 &gt; 500), 0, H259)), 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -9099,8 +10162,12 @@
       <c r="I260" s="2">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -9126,8 +10193,12 @@
       <c r="I261" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -9153,8 +10224,12 @@
       <c r="I262" s="2">
         <v>95.42</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -9180,8 +10255,12 @@
       <c r="I263" s="2">
         <v>72.09</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -9207,8 +10286,12 @@
       <c r="I264" s="2">
         <v>71.05</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -9236,8 +10319,12 @@
       <c r="I265" s="2">
         <v>134.62</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -9263,8 +10350,12 @@
       <c r="I266" s="2">
         <v>110.34</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -9290,8 +10381,12 @@
       <c r="I267" s="2">
         <v>111.2</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -9317,8 +10412,12 @@
       <c r="I268" s="2">
         <v>163.16</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -9344,8 +10443,12 @@
       <c r="I269" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -9371,8 +10474,12 @@
       <c r="I270" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" t="str">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -9398,8 +10505,12 @@
       <c r="I271" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -9425,8 +10536,12 @@
       <c r="I272" s="2">
         <v>73.64</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" t="str">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -9452,8 +10567,12 @@
       <c r="I273" s="2">
         <v>93.13</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" t="str">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -9479,8 +10598,12 @@
       <c r="I274" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -9508,8 +10631,12 @@
       <c r="I275" s="2">
         <v>78.290000000000006</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -9537,8 +10664,12 @@
       <c r="I276" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -9564,8 +10695,12 @@
       <c r="I277" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -9593,8 +10728,12 @@
       <c r="I278" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -9622,8 +10761,12 @@
       <c r="I279" s="2">
         <v>105.71</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -9651,8 +10794,12 @@
       <c r="I280" s="2">
         <v>110.61</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -9680,8 +10827,12 @@
       <c r="I281" s="2">
         <v>40.479999999999997</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -9709,8 +10860,12 @@
       <c r="I282" s="2">
         <v>83.72</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -9736,8 +10891,12 @@
       <c r="I283" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -9765,8 +10924,12 @@
       <c r="I284" s="2">
         <v>86.08</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -9792,8 +10955,12 @@
       <c r="I285" s="2">
         <v>129.85</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" t="str">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -9819,8 +10986,12 @@
       <c r="I286" s="2">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -9848,8 +11019,12 @@
       <c r="I287" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -9875,8 +11050,12 @@
       <c r="I288" s="2">
         <v>75.56</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" t="str">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -9902,8 +11081,12 @@
       <c r="I289" s="2">
         <v>92.86</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -9929,8 +11112,12 @@
       <c r="I290" s="2">
         <v>11.11</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -9956,8 +11143,12 @@
       <c r="I291" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -9985,8 +11176,12 @@
       <c r="I292" s="2">
         <v>97.22</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -10012,8 +11207,12 @@
       <c r="I293" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -10039,8 +11238,12 @@
       <c r="I294" s="2">
         <v>124.14</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -10068,8 +11271,12 @@
       <c r="I295" s="2">
         <v>110.78</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -10095,8 +11302,12 @@
       <c r="I296" s="2">
         <v>73.680000000000007</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -10122,8 +11333,12 @@
       <c r="I297" s="2">
         <v>43.75</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -10151,8 +11366,12 @@
       <c r="I298" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -10180,8 +11399,12 @@
       <c r="I299" s="2">
         <v>55.17</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -10207,8 +11430,12 @@
       <c r="I300" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -10236,8 +11463,12 @@
       <c r="I301" s="2">
         <v>31.82</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -10265,8 +11496,12 @@
       <c r="I302" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -10294,8 +11529,12 @@
       <c r="I303" s="2">
         <v>7.69</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -10323,8 +11562,12 @@
       <c r="I304" s="2">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -10350,8 +11593,12 @@
       <c r="I305" s="2">
         <v>72.22</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -10377,8 +11624,12 @@
       <c r="I306" s="2">
         <v>61.02</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -10404,8 +11655,12 @@
       <c r="I307" s="2">
         <v>89.01</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -10431,8 +11686,12 @@
       <c r="I308" s="2">
         <v>100.66</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -10460,8 +11719,12 @@
       <c r="I309" s="2">
         <v>96.15</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -10487,8 +11750,12 @@
       <c r="I310" s="2">
         <v>130.66999999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -10516,8 +11783,12 @@
       <c r="I311" s="2">
         <v>41.67</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -10543,8 +11814,12 @@
       <c r="I312" s="2">
         <v>80.83</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -10570,8 +11845,12 @@
       <c r="I313" s="2">
         <v>93.75</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -10599,8 +11878,12 @@
       <c r="I314" s="2">
         <v>82.18</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -10626,8 +11909,12 @@
       <c r="I315" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -10655,8 +11942,12 @@
       <c r="I316" s="2">
         <v>72.73</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" t="str">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -10684,8 +11975,12 @@
       <c r="I317" s="2">
         <v>84.03</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -10713,8 +12008,12 @@
       <c r="I318" s="2">
         <v>89.47</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -10742,8 +12041,12 @@
       <c r="I319" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -10771,8 +12074,12 @@
       <c r="I320" s="2">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -10800,8 +12107,12 @@
       <c r="I321" s="2">
         <v>112.09</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -10829,8 +12140,12 @@
       <c r="I322" s="2">
         <v>68.180000000000007</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -10858,8 +12173,12 @@
       <c r="I323" s="2">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323">
+        <f t="shared" ref="J323:J386" si="5">IFERROR(IF(RIGHT(H323, 1) = "*", LEFT(H323, LEN(H323) - 1), IF(OR(H323 &lt; 0, H323 &gt; 500), 0, H323)), 0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -10885,8 +12204,12 @@
       <c r="I324" s="2">
         <v>74.58</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -10914,8 +12237,12 @@
       <c r="I325" s="2">
         <v>90.53</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -10943,8 +12270,12 @@
       <c r="I326" s="2">
         <v>83.33</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -10972,8 +12303,12 @@
       <c r="I327" s="2">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -11001,8 +12336,12 @@
       <c r="I328" s="2">
         <v>36.36</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -11030,8 +12369,12 @@
       <c r="I329" s="2">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -11057,8 +12400,12 @@
       <c r="I330" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -11086,8 +12433,12 @@
       <c r="I331" s="2">
         <v>104.44</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -11113,8 +12464,12 @@
       <c r="I332" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -11142,8 +12497,12 @@
       <c r="I333" s="2">
         <v>53.85</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -11171,8 +12530,12 @@
       <c r="I334" s="2">
         <v>77.08</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -11198,8 +12561,12 @@
       <c r="I335" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -11227,8 +12594,12 @@
       <c r="I336" s="2">
         <v>84.62</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -11254,8 +12625,12 @@
       <c r="I337" s="2">
         <v>65.08</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" t="str">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -11283,8 +12658,12 @@
       <c r="I338" s="2">
         <v>75.73</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -11312,8 +12691,12 @@
       <c r="I339" s="2">
         <v>85.71</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -11341,8 +12724,12 @@
       <c r="I340" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -11370,8 +12757,12 @@
       <c r="I341" s="2">
         <v>94.12</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -11397,8 +12788,12 @@
       <c r="I342" s="2">
         <v>59.38</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -11426,8 +12821,12 @@
       <c r="I343" s="2">
         <v>111.9</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -11453,8 +12852,12 @@
       <c r="I344" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -11480,8 +12883,12 @@
       <c r="I345" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -11507,8 +12914,12 @@
       <c r="I346" s="2">
         <v>54.55</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -11534,8 +12945,12 @@
       <c r="I347" s="2">
         <v>94.62</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -11561,8 +12976,12 @@
       <c r="I348" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -11588,8 +13007,12 @@
       <c r="I349" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -11615,8 +13038,12 @@
       <c r="I350" s="2">
         <v>96.88</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -11644,8 +13071,12 @@
       <c r="I351" s="2">
         <v>97.1</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" t="str">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -11671,8 +13102,12 @@
       <c r="I352" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -11698,8 +13133,12 @@
       <c r="I353" s="2">
         <v>57.89</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -11725,8 +13164,12 @@
       <c r="I354" s="2">
         <v>63.33</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -11752,8 +13195,12 @@
       <c r="I355" s="2">
         <v>81.25</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -11779,8 +13226,12 @@
       <c r="I356" s="2">
         <v>22.22</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -11808,8 +13259,12 @@
       <c r="I357" s="2">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -11837,8 +13292,12 @@
       <c r="I358" s="2">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -11866,8 +13325,12 @@
       <c r="I359" s="2">
         <v>68.180000000000007</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -11893,8 +13356,12 @@
       <c r="I360" s="2">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -11920,8 +13387,12 @@
       <c r="I361" s="2">
         <v>97.67</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -11949,8 +13420,12 @@
       <c r="I362" s="2">
         <v>91.35</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -11978,8 +13453,12 @@
       <c r="I363" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -12005,8 +13484,12 @@
       <c r="I364" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -12034,8 +13517,12 @@
       <c r="I365" s="2">
         <v>95.27</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J365" t="str">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -12063,8 +13550,12 @@
       <c r="I366" s="2">
         <v>70.59</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -12092,8 +13583,12 @@
       <c r="I367" s="2">
         <v>63.73</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -12121,8 +13616,12 @@
       <c r="I368" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J368">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -12150,8 +13649,12 @@
       <c r="I369" s="2">
         <v>85.37</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -12179,8 +13682,12 @@
       <c r="I370" s="2">
         <v>64.44</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -12208,8 +13715,12 @@
       <c r="I371" s="2">
         <v>38.46</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -12237,8 +13748,12 @@
       <c r="I372" s="2">
         <v>68.63</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -12264,8 +13779,12 @@
       <c r="I373" s="2">
         <v>22.22</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -12291,8 +13810,12 @@
       <c r="I374" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -12318,8 +13841,12 @@
       <c r="I375" s="2">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -12345,8 +13872,12 @@
       <c r="I376" s="2">
         <v>81.58</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -12374,8 +13905,12 @@
       <c r="I377" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -12403,8 +13938,12 @@
       <c r="I378" s="2">
         <v>90.91</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -12430,8 +13969,12 @@
       <c r="I379" s="2">
         <v>131.58000000000001</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" t="str">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -12457,8 +14000,12 @@
       <c r="I380" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -12484,8 +14031,12 @@
       <c r="I381" s="2">
         <v>88.52</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -12511,8 +14062,12 @@
       <c r="I382" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -12538,8 +14093,12 @@
       <c r="I383" s="2">
         <v>26.92</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -12565,8 +14124,12 @@
       <c r="I384" s="2">
         <v>196.55</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" t="str">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -12592,8 +14155,12 @@
       <c r="I385" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J385">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -12619,8 +14186,12 @@
       <c r="I386" s="2">
         <v>133.33000000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J386">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -12646,8 +14217,12 @@
       <c r="I387" s="2">
         <v>69.23</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J387">
+        <f t="shared" ref="J387:J450" si="6">IFERROR(IF(RIGHT(H387, 1) = "*", LEFT(H387, LEN(H387) - 1), IF(OR(H387 &lt; 0, H387 &gt; 500), 0, H387)), 0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -12673,8 +14248,12 @@
       <c r="I388" s="2">
         <v>87.74</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J388">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -12700,8 +14279,12 @@
       <c r="I389" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J389">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -12729,8 +14312,12 @@
       <c r="I390" s="2">
         <v>51.52</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J390">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -12758,8 +14345,12 @@
       <c r="I391" s="2">
         <v>88.39</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J391">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -12785,8 +14376,12 @@
       <c r="I392" s="2">
         <v>42.11</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J392">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -12814,8 +14409,12 @@
       <c r="I393" s="2">
         <v>63.95</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J393">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -12841,8 +14440,12 @@
       <c r="I394" s="2">
         <v>120.34</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J394">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -12868,8 +14471,12 @@
       <c r="I395" s="2">
         <v>116.05</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J395">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -12895,8 +14502,12 @@
       <c r="I396" s="2">
         <v>65.22</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J396">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -12924,8 +14535,12 @@
       <c r="I397" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J397">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -12951,8 +14566,12 @@
       <c r="I398" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J398">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -12978,8 +14597,12 @@
       <c r="I399" s="2">
         <v>60.56</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J399">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -13005,8 +14628,12 @@
       <c r="I400" s="2">
         <v>66.39</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J400">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -13032,8 +14659,12 @@
       <c r="I401" s="2">
         <v>64.38</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J401">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -13059,8 +14690,12 @@
       <c r="I402" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J402">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -13088,8 +14723,12 @@
       <c r="I403" s="2">
         <v>58.33</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J403">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -13115,8 +14754,12 @@
       <c r="I404" s="2">
         <v>57.14</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J404">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -13144,8 +14787,12 @@
       <c r="I405" s="2">
         <v>108.79</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J405">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -13171,8 +14818,12 @@
       <c r="I406" s="2">
         <v>107.41</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J406">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -13200,8 +14851,12 @@
       <c r="I407" s="2">
         <v>95.1</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J407">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -13229,8 +14884,12 @@
       <c r="I408" s="2">
         <v>111.11</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J408">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -13258,8 +14917,12 @@
       <c r="I409" s="2">
         <v>58.82</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J409">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -13287,8 +14950,12 @@
       <c r="I410" s="2">
         <v>67.31</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J410">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -13316,8 +14983,12 @@
       <c r="I411" s="2">
         <v>81.48</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J411">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -13343,8 +15014,12 @@
       <c r="I412" s="2">
         <v>106.67</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J412">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -13372,8 +15047,12 @@
       <c r="I413" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J413">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -13401,8 +15080,12 @@
       <c r="I414" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J414">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -13430,8 +15113,12 @@
       <c r="I415" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J415">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -13457,8 +15144,12 @@
       <c r="I416" s="2">
         <v>116.67</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J416">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -13486,8 +15177,12 @@
       <c r="I417" s="2">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J417" t="str">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -13515,8 +15210,12 @@
       <c r="I418" s="2">
         <v>75.209999999999994</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J418">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -13544,8 +15243,12 @@
       <c r="I419" s="2">
         <v>52.38</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J419">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -13573,8 +15276,12 @@
       <c r="I420" s="2">
         <v>87.72</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J420">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -13600,8 +15307,12 @@
       <c r="I421" s="2">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J421">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -13629,8 +15340,12 @@
       <c r="I422" s="2">
         <v>66.67</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J422">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -13658,8 +15373,12 @@
       <c r="I423" s="2">
         <v>58.33</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J423">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -13687,8 +15406,12 @@
       <c r="I424" s="2">
         <v>86.96</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J424">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -13716,8 +15439,12 @@
       <c r="I425" s="2">
         <v>88.41</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J425">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -13745,8 +15472,12 @@
       <c r="I426" s="2">
         <v>122.56</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J426" t="str">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -13774,8 +15505,12 @@
       <c r="I427" s="2">
         <v>83.64</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J427">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -13803,8 +15538,12 @@
       <c r="I428" s="2">
         <v>81.819999999999993</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J428">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -13832,8 +15571,12 @@
       <c r="I429" s="2">
         <v>103.76</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J429">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -13861,8 +15604,12 @@
       <c r="I430" s="2">
         <v>57.14</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J430">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -13888,8 +15635,12 @@
       <c r="I431" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J431">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -13915,8 +15666,12 @@
       <c r="I432" s="2">
         <v>48.28</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J432">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -13944,8 +15699,12 @@
       <c r="I433" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J433">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -13973,8 +15732,12 @@
       <c r="I434" s="2">
         <v>68.09</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J434">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -14002,8 +15765,12 @@
       <c r="I435" s="2">
         <v>58.82</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J435">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -14031,8 +15798,12 @@
       <c r="I436" s="2">
         <v>124.11</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J436">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -14058,8 +15829,12 @@
       <c r="I437" s="2">
         <v>58.82</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J437">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -14085,8 +15860,12 @@
       <c r="I438" s="2">
         <v>109.52</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J438">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -14114,8 +15893,12 @@
       <c r="I439" s="2">
         <v>82.69</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J439">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -14143,8 +15926,12 @@
       <c r="I440" s="2">
         <v>92.31</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J440" t="str">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -14172,8 +15959,12 @@
       <c r="I441" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J441">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -14201,8 +15992,12 @@
       <c r="I442" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J442">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -14230,8 +16025,12 @@
       <c r="I443" s="2">
         <v>136.05000000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J443" t="str">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -14259,8 +16058,12 @@
       <c r="I444" s="2">
         <v>63.64</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J444">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -14288,8 +16091,12 @@
       <c r="I445" s="2">
         <v>54.55</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J445">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -14317,8 +16124,12 @@
       <c r="I446" s="2">
         <v>96.55</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J446">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -14346,8 +16157,12 @@
       <c r="I447" s="2">
         <v>104.35</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J447">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -14375,8 +16190,12 @@
       <c r="I448" s="2">
         <v>67.86</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J448">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -14404,8 +16223,12 @@
       <c r="I449" s="2">
         <v>122.73</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J449">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -14433,8 +16256,12 @@
       <c r="I450" s="2">
         <v>109.9</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J450">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -14462,8 +16289,12 @@
       <c r="I451" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J451">
+        <f t="shared" ref="J451:J464" si="7">IFERROR(IF(RIGHT(H451, 1) = "*", LEFT(H451, LEN(H451) - 1), IF(OR(H451 &lt; 0, H451 &gt; 500), 0, H451)), 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -14491,8 +16322,12 @@
       <c r="I452" s="2">
         <v>77.94</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J452">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -14520,8 +16355,12 @@
       <c r="I453" s="2">
         <v>73.91</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J453">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -14549,8 +16388,12 @@
       <c r="I454" s="2">
         <v>128.57</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J454">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -14578,8 +16421,12 @@
       <c r="I455" s="2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J455">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -14607,8 +16454,12 @@
       <c r="I456" s="2">
         <v>76.19</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J456">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -14636,8 +16487,12 @@
       <c r="I457" s="2">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J457">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -14665,8 +16520,12 @@
       <c r="I458" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J458">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -14694,8 +16553,12 @@
       <c r="I459" s="2">
         <v>95.65</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J459">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -14723,8 +16586,12 @@
       <c r="I460" s="2">
         <v>93.33</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J460">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -14752,8 +16619,12 @@
       <c r="I461" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J461">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -14781,8 +16652,12 @@
       <c r="I462" s="2">
         <v>31.58</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J462">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -14810,8 +16685,12 @@
       <c r="I463" s="2">
         <v>77.55</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J463">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -14838,6 +16717,10 @@
       </c>
       <c r="I464" s="2">
         <v>108.33</v>
+      </c>
+      <c r="J464">
+        <f t="shared" si="7"/>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau_Excel/Sachins stats.xlsx
+++ b/Tableau_Excel/Sachins stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Datasets\Tableau_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D3CD4-2BFD-45EE-B67C-278B2F486537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E240B3-BD70-4655-8F10-DCBB3B2E2C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="513">
   <si>
     <t>Match</t>
   </si>
@@ -1564,15 +1564,6 @@
   </si>
   <si>
     <t>c Younis Khan b Saeed Ajmal</t>
-  </si>
-  <si>
-    <t>No of centuries</t>
-  </si>
-  <si>
-    <t>No of half-centuries</t>
-  </si>
-  <si>
-    <t>Cleaned Runs</t>
   </si>
 </sst>
 </file>
@@ -1626,12 +1617,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:I464"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,11 +1919,10 @@
     <col min="7" max="7" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1961,12 +1950,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1992,19 +1977,8 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>IFERROR(IF(RIGHT(H2, 1) = "*", LEFT(H2, LEN(H2) - 1), IF(OR(H2 &lt; 0, H2 &gt; 500), 0, H2)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>513</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIF(J:J,"&gt;=100")</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2030,19 +2004,8 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">IFERROR(IF(RIGHT(H3, 1) = "*", LEFT(H3, LEN(H3) - 1), IF(OR(H3 &lt; 0, H3 &gt; 500), 0, H3)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>514</v>
-      </c>
-      <c r="L3">
-        <f>COUNTIF(J:J,"&gt;=50")</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2068,12 +2031,8 @@
       <c r="I4" s="2">
         <v>92.31</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2099,12 +2058,8 @@
       <c r="I5" s="2">
         <v>83.33</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2130,12 +2085,8 @@
       <c r="I6" s="2">
         <v>80</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2161,12 +2112,8 @@
       <c r="I7" s="2">
         <v>54.29</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2192,12 +2139,8 @@
       <c r="I8" s="2">
         <v>119.23</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2223,12 +2166,8 @@
       <c r="I9" s="2">
         <v>163.63999999999999</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2254,12 +2193,8 @@
       <c r="I10" s="2">
         <v>129.27000000000001</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2285,12 +2220,8 @@
       <c r="I11" s="2">
         <v>103.45</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2314,12 +2245,8 @@
       <c r="I12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2345,12 +2272,8 @@
       <c r="I13" s="2">
         <v>36.36</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2376,12 +2299,8 @@
       <c r="I14" s="2">
         <v>75.709999999999994</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2407,12 +2326,8 @@
       <c r="I15" s="2">
         <v>130</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2438,12 +2353,8 @@
       <c r="I16" s="2">
         <v>81.48</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2469,12 +2380,8 @@
       <c r="I17" s="2">
         <v>40.74</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2500,12 +2407,8 @@
       <c r="I18" s="2">
         <v>128.94999999999999</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2531,12 +2434,8 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2562,12 +2461,8 @@
       <c r="I20" s="2">
         <v>84.93</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2593,12 +2488,8 @@
       <c r="I21" s="2">
         <v>50</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2626,12 +2517,8 @@
       <c r="I22" s="2">
         <v>33.33</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2659,12 +2546,8 @@
       <c r="I23" s="2">
         <v>11.11</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2690,12 +2573,8 @@
       <c r="I24" s="2">
         <v>55.38</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2721,12 +2600,8 @@
       <c r="I25" s="2">
         <v>53.27</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2752,12 +2627,8 @@
       <c r="I26" s="2">
         <v>84.21</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2783,12 +2654,8 @@
       <c r="I27" s="2">
         <v>60</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2814,12 +2681,8 @@
       <c r="I28" s="2">
         <v>60.63</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2847,12 +2710,8 @@
       <c r="I29" s="2">
         <v>70.45</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2880,12 +2739,8 @@
       <c r="I30" s="2">
         <v>64.77</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2913,12 +2768,8 @@
       <c r="I31" s="2">
         <v>40</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2946,12 +2797,8 @@
       <c r="I32" s="2">
         <v>69</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2979,12 +2826,8 @@
       <c r="I33" s="2">
         <v>79.55</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3008,12 +2851,8 @@
       <c r="I34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3039,12 +2878,8 @@
       <c r="I35" s="2">
         <v>57.89</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3072,12 +2907,8 @@
       <c r="I36" s="2">
         <v>87.1</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3103,12 +2934,8 @@
       <c r="I37" s="2">
         <v>105.19</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3134,12 +2961,8 @@
       <c r="I38" s="2">
         <v>36.36</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3165,12 +2988,8 @@
       <c r="I39" s="2">
         <v>78.5</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3196,12 +3015,8 @@
       <c r="I40" s="2">
         <v>100</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3227,12 +3042,8 @@
       <c r="I41" s="2">
         <v>69.64</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3260,12 +3071,8 @@
       <c r="I42" s="2">
         <v>55.56</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3293,12 +3100,8 @@
       <c r="I43" s="2">
         <v>27.78</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3326,12 +3129,8 @@
       <c r="I44" s="2">
         <v>91.67</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3359,12 +3158,8 @@
       <c r="I45" s="2">
         <v>47.73</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3392,12 +3187,8 @@
       <c r="I46" s="2">
         <v>61.54</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3425,12 +3216,8 @@
       <c r="I47" s="2">
         <v>58.97</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3458,12 +3245,8 @@
       <c r="I48" s="2">
         <v>55.26</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3489,12 +3272,8 @@
       <c r="I49" s="2">
         <v>101.23</v>
       </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3520,12 +3299,8 @@
       <c r="I50" s="2">
         <v>20</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3551,12 +3326,8 @@
       <c r="I51" s="2">
         <v>50</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3582,12 +3353,8 @@
       <c r="I52" s="2">
         <v>75</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3613,12 +3380,8 @@
       <c r="I53" s="2">
         <v>83.33</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3644,12 +3407,8 @@
       <c r="I54" s="2">
         <v>113.33</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3675,12 +3434,8 @@
       <c r="I55" s="2">
         <v>33.33</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3706,12 +3461,8 @@
       <c r="I56" s="2">
         <v>133.33000000000001</v>
       </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3735,12 +3486,8 @@
       <c r="I57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3766,12 +3513,8 @@
       <c r="I58" s="2">
         <v>53.85</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3799,12 +3542,8 @@
       <c r="I59" s="2">
         <v>50</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3830,12 +3569,8 @@
       <c r="I60" s="2">
         <v>64.099999999999994</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3861,12 +3596,8 @@
       <c r="I61" s="2">
         <v>86.67</v>
       </c>
-      <c r="J61" t="str">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3892,12 +3623,8 @@
       <c r="I62" s="2">
         <v>25</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3923,12 +3650,8 @@
       <c r="I63" s="2">
         <v>150</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3954,12 +3677,8 @@
       <c r="I64" s="2">
         <v>12</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3987,12 +3706,8 @@
       <c r="I65" s="2">
         <v>48.39</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4020,12 +3735,8 @@
       <c r="I66" s="2">
         <v>65.12</v>
       </c>
-      <c r="J66" t="str">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4051,12 +3762,8 @@
       <c r="I67" s="2">
         <v>20</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">IFERROR(IF(RIGHT(H67, 1) = "*", LEFT(H67, LEN(H67) - 1), IF(OR(H67 &lt; 0, H67 &gt; 500), 0, H67)), 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4082,12 +3789,8 @@
       <c r="I68" s="2">
         <v>61.11</v>
       </c>
-      <c r="J68" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4113,12 +3816,8 @@
       <c r="I69" s="2">
         <v>82.54</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4144,12 +3843,8 @@
       <c r="I70" s="2">
         <v>78.95</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4175,12 +3870,8 @@
       <c r="I71" s="2">
         <v>167.35</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4206,12 +3897,8 @@
       <c r="I72" s="2">
         <v>84</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4237,12 +3924,8 @@
       <c r="I73" s="2">
         <v>153.85</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4268,12 +3951,8 @@
       <c r="I74" s="2">
         <v>81.819999999999993</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4299,12 +3978,8 @@
       <c r="I75" s="2">
         <v>114.06</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4330,12 +4005,8 @@
       <c r="I76" s="2">
         <v>85.71</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4361,12 +4032,8 @@
       <c r="I77" s="2">
         <v>92.31</v>
       </c>
-      <c r="J77">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4394,12 +4061,8 @@
       <c r="I78" s="2">
         <v>68.75</v>
       </c>
-      <c r="J78" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4427,12 +4090,8 @@
       <c r="I79" s="2">
         <v>120</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4460,12 +4119,8 @@
       <c r="I80" s="2">
         <v>84.62</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4491,12 +4146,8 @@
       <c r="I81" s="2">
         <v>0</v>
       </c>
-      <c r="J81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4522,12 +4173,8 @@
       <c r="I82" s="2">
         <v>0</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4553,12 +4200,8 @@
       <c r="I83" s="2">
         <v>0</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4584,12 +4227,8 @@
       <c r="I84" s="2">
         <v>33.33</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4615,12 +4254,8 @@
       <c r="I85" s="2">
         <v>84.56</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4646,12 +4281,8 @@
       <c r="I86" s="2">
         <v>72.34</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4677,12 +4308,8 @@
       <c r="I87" s="2">
         <v>114.81</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4710,12 +4337,8 @@
       <c r="I88" s="2">
         <v>97.06</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4741,12 +4364,8 @@
       <c r="I89" s="2">
         <v>84.38</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4772,12 +4391,8 @@
       <c r="I90" s="2">
         <v>78.569999999999993</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4803,12 +4418,8 @@
       <c r="I91" s="2">
         <v>78.36</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4834,12 +4445,8 @@
       <c r="I92" s="2">
         <v>86.67</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4865,12 +4472,8 @@
       <c r="I93" s="2">
         <v>72.55</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4896,12 +4499,8 @@
       <c r="I94" s="2">
         <v>117.5</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4927,12 +4526,8 @@
       <c r="I95" s="2">
         <v>160</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4958,12 +4553,8 @@
       <c r="I96" s="2">
         <v>44.44</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4989,12 +4580,8 @@
       <c r="I97" s="2">
         <v>104.67</v>
       </c>
-      <c r="J97" t="str">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5020,12 +4607,8 @@
       <c r="I98" s="2">
         <v>100</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5051,12 +4634,8 @@
       <c r="I99" s="2">
         <v>150</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5082,12 +4661,8 @@
       <c r="I100" s="2">
         <v>76.47</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5113,12 +4688,8 @@
       <c r="I101" s="2">
         <v>63.64</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5144,12 +4715,8 @@
       <c r="I102" s="2">
         <v>110.17</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5175,12 +4742,8 @@
       <c r="I103" s="2">
         <v>25</v>
       </c>
-      <c r="J103">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5206,12 +4769,8 @@
       <c r="I104" s="2">
         <v>92.03</v>
       </c>
-      <c r="J104" t="str">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5239,12 +4798,8 @@
       <c r="I105" s="2">
         <v>76.92</v>
       </c>
-      <c r="J105">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5272,12 +4827,8 @@
       <c r="I106" s="2">
         <v>107.14</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5303,12 +4854,8 @@
       <c r="I107" s="2">
         <v>100</v>
       </c>
-      <c r="J107">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5334,12 +4881,8 @@
       <c r="I108" s="2">
         <v>25</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5367,12 +4910,8 @@
       <c r="I109" s="2">
         <v>52.54</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5400,12 +4939,8 @@
       <c r="I110" s="2">
         <v>73.86</v>
       </c>
-      <c r="J110">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5431,12 +4966,8 @@
       <c r="I111" s="2">
         <v>90.32</v>
       </c>
-      <c r="J111">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5462,12 +4993,8 @@
       <c r="I112" s="2">
         <v>90.09</v>
       </c>
-      <c r="J112">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5493,12 +5020,8 @@
       <c r="I113" s="2">
         <v>20</v>
       </c>
-      <c r="J113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5524,12 +5047,8 @@
       <c r="I114" s="2">
         <v>13.33</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5555,12 +5074,8 @@
       <c r="I115" s="2">
         <v>84.29</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5586,12 +5101,8 @@
       <c r="I116" s="2">
         <v>65.38</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5617,12 +5128,8 @@
       <c r="I117" s="2">
         <v>80.28</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5648,12 +5155,8 @@
       <c r="I118" s="2">
         <v>157.88999999999999</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -5679,12 +5182,8 @@
       <c r="I119" s="2">
         <v>31.58</v>
       </c>
-      <c r="J119">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -5710,12 +5209,8 @@
       <c r="I120" s="2">
         <v>9.09</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -5743,12 +5238,8 @@
       <c r="I121" s="2">
         <v>79.709999999999994</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -5774,12 +5265,8 @@
       <c r="I122" s="2">
         <v>86.96</v>
       </c>
-      <c r="J122">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -5805,12 +5292,8 @@
       <c r="I123" s="2">
         <v>63.64</v>
       </c>
-      <c r="J123">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5836,12 +5319,8 @@
       <c r="I124" s="2">
         <v>100</v>
       </c>
-      <c r="J124" t="str">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -5867,12 +5346,8 @@
       <c r="I125" s="2">
         <v>86.96</v>
       </c>
-      <c r="J125">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -5898,12 +5373,8 @@
       <c r="I126" s="2">
         <v>15.38</v>
       </c>
-      <c r="J126">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -5929,12 +5400,8 @@
       <c r="I127" s="2">
         <v>33.33</v>
       </c>
-      <c r="J127">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -5960,12 +5427,8 @@
       <c r="I128" s="2">
         <v>52.27</v>
       </c>
-      <c r="J128">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -5993,12 +5456,8 @@
       <c r="I129" s="2">
         <v>137.5</v>
       </c>
-      <c r="J129">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6026,12 +5485,8 @@
       <c r="I130" s="2">
         <v>79.28</v>
       </c>
-      <c r="J130">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6057,12 +5512,8 @@
       <c r="I131" s="2">
         <v>68.819999999999993</v>
       </c>
-      <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">IFERROR(IF(RIGHT(H131, 1) = "*", LEFT(H131, LEN(H131) - 1), IF(OR(H131 &lt; 0, H131 &gt; 500), 0, H131)), 0)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6088,12 +5539,8 @@
       <c r="I132" s="2">
         <v>73.680000000000007</v>
       </c>
-      <c r="J132">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6121,12 +5568,8 @@
       <c r="I133" s="2">
         <v>103.33</v>
       </c>
-      <c r="J133">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6154,12 +5597,8 @@
       <c r="I134" s="2">
         <v>76.14</v>
       </c>
-      <c r="J134">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6187,12 +5626,8 @@
       <c r="I135" s="2">
         <v>90.48</v>
       </c>
-      <c r="J135">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6220,12 +5655,8 @@
       <c r="I136" s="2">
         <v>0</v>
       </c>
-      <c r="J136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6253,12 +5684,8 @@
       <c r="I137" s="2">
         <v>75</v>
       </c>
-      <c r="J137">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6284,12 +5711,8 @@
       <c r="I138" s="2">
         <v>7.14</v>
       </c>
-      <c r="J138">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6317,12 +5740,8 @@
       <c r="I139" s="2">
         <v>58.33</v>
       </c>
-      <c r="J139">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6350,12 +5769,8 @@
       <c r="I140" s="2">
         <v>73.209999999999994</v>
       </c>
-      <c r="J140">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6381,12 +5796,8 @@
       <c r="I141" s="2">
         <v>107.22</v>
       </c>
-      <c r="J141">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6414,12 +5825,8 @@
       <c r="I142" s="2">
         <v>118.52</v>
       </c>
-      <c r="J142">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -6447,12 +5854,8 @@
       <c r="I143" s="2">
         <v>136.36000000000001</v>
       </c>
-      <c r="J143">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -6478,12 +5881,8 @@
       <c r="I144" s="2">
         <v>86.67</v>
       </c>
-      <c r="J144">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -6509,12 +5908,8 @@
       <c r="I145" s="2">
         <v>102.33</v>
       </c>
-      <c r="J145">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -6540,12 +5935,8 @@
       <c r="I146" s="2">
         <v>92.86</v>
       </c>
-      <c r="J146" t="str">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -6571,12 +5962,8 @@
       <c r="I147" s="2">
         <v>60</v>
       </c>
-      <c r="J147">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6602,12 +5989,8 @@
       <c r="I148" s="2">
         <v>9.09</v>
       </c>
-      <c r="J148">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -6635,12 +6018,8 @@
       <c r="I149" s="2">
         <v>85.4</v>
       </c>
-      <c r="J149">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6668,12 +6047,8 @@
       <c r="I150" s="2">
         <v>50</v>
       </c>
-      <c r="J150">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -6701,12 +6076,8 @@
       <c r="I151" s="2">
         <v>57.14</v>
       </c>
-      <c r="J151">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6732,12 +6103,8 @@
       <c r="I152" s="2">
         <v>75</v>
       </c>
-      <c r="J152">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -6761,12 +6128,8 @@
       <c r="I153" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6792,12 +6155,8 @@
       <c r="I154" s="2">
         <v>133.33000000000001</v>
       </c>
-      <c r="J154">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -6823,12 +6182,8 @@
       <c r="I155" s="2">
         <v>79.099999999999994</v>
       </c>
-      <c r="J155">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6856,12 +6211,8 @@
       <c r="I156" s="2">
         <v>96.43</v>
       </c>
-      <c r="J156">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -6889,12 +6240,8 @@
       <c r="I157" s="2">
         <v>100</v>
       </c>
-      <c r="J157">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -6920,12 +6267,8 @@
       <c r="I158" s="2">
         <v>87.1</v>
       </c>
-      <c r="J158">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -6951,12 +6294,8 @@
       <c r="I159" s="2">
         <v>121.88</v>
       </c>
-      <c r="J159">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -6982,12 +6321,8 @@
       <c r="I160" s="2">
         <v>31.48</v>
       </c>
-      <c r="J160">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7013,12 +6348,8 @@
       <c r="I161" s="2">
         <v>55.56</v>
       </c>
-      <c r="J161" t="str">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7042,12 +6373,8 @@
       <c r="I162" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7073,12 +6400,8 @@
       <c r="I163" s="2">
         <v>0</v>
       </c>
-      <c r="J163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7104,12 +6427,8 @@
       <c r="I164" s="2">
         <v>85.71</v>
       </c>
-      <c r="J164">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7135,12 +6454,8 @@
       <c r="I165" s="2">
         <v>79.69</v>
       </c>
-      <c r="J165">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7166,12 +6481,8 @@
       <c r="I166" s="2">
         <v>18.18</v>
       </c>
-      <c r="J166">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7197,12 +6508,8 @@
       <c r="I167" s="2">
         <v>116.67</v>
       </c>
-      <c r="J167">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7230,12 +6537,8 @@
       <c r="I168" s="2">
         <v>63.64</v>
       </c>
-      <c r="J168">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -7263,12 +6566,8 @@
       <c r="I169" s="2">
         <v>104.6</v>
       </c>
-      <c r="J169">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -7296,12 +6595,8 @@
       <c r="I170" s="2">
         <v>75</v>
       </c>
-      <c r="J170">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -7329,12 +6624,8 @@
       <c r="I171" s="2">
         <v>50</v>
       </c>
-      <c r="J171">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -7360,12 +6651,8 @@
       <c r="I172" s="2">
         <v>95.35</v>
       </c>
-      <c r="J172" t="str">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7389,12 +6676,8 @@
       <c r="I173" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -7420,12 +6703,8 @@
       <c r="I174" s="2">
         <v>46.15</v>
       </c>
-      <c r="J174">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -7451,12 +6730,8 @@
       <c r="I175" s="2">
         <v>71.05</v>
       </c>
-      <c r="J175">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -7482,12 +6757,8 @@
       <c r="I176" s="2">
         <v>152.27000000000001</v>
       </c>
-      <c r="J176">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -7513,12 +6784,8 @@
       <c r="I177" s="2">
         <v>121.79</v>
       </c>
-      <c r="J177">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -7544,12 +6811,8 @@
       <c r="I178" s="2">
         <v>16.670000000000002</v>
       </c>
-      <c r="J178">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -7575,12 +6838,8 @@
       <c r="I179" s="2">
         <v>157.69</v>
       </c>
-      <c r="J179">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -7606,12 +6865,8 @@
       <c r="I180" s="2">
         <v>72.73</v>
       </c>
-      <c r="J180">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -7637,12 +6892,8 @@
       <c r="I181" s="2">
         <v>29.41</v>
       </c>
-      <c r="J181">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -7668,12 +6919,8 @@
       <c r="I182" s="2">
         <v>112.36</v>
       </c>
-      <c r="J182">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -7699,12 +6946,8 @@
       <c r="I183" s="2">
         <v>50</v>
       </c>
-      <c r="J183">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -7730,12 +6973,8 @@
       <c r="I184" s="2">
         <v>62.5</v>
       </c>
-      <c r="J184">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -7763,12 +7002,8 @@
       <c r="I185" s="2">
         <v>97.56</v>
       </c>
-      <c r="J185">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7796,12 +7031,8 @@
       <c r="I186" s="2">
         <v>111.11</v>
       </c>
-      <c r="J186">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -7829,12 +7060,8 @@
       <c r="I187" s="2">
         <v>65.52</v>
       </c>
-      <c r="J187">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7862,12 +7089,8 @@
       <c r="I188" s="2">
         <v>109.16</v>
       </c>
-      <c r="J188">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -7895,12 +7118,8 @@
       <c r="I189" s="2">
         <v>102.29</v>
       </c>
-      <c r="J189">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7928,12 +7147,8 @@
       <c r="I190" s="2">
         <v>113.79</v>
       </c>
-      <c r="J190">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -7961,12 +7176,8 @@
       <c r="I191" s="2">
         <v>72</v>
       </c>
-      <c r="J191">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7994,12 +7205,8 @@
       <c r="I192" s="2">
         <v>97.09</v>
       </c>
-      <c r="J192" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -8027,12 +7234,8 @@
       <c r="I193" s="2">
         <v>130</v>
       </c>
-      <c r="J193">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -8060,12 +7263,8 @@
       <c r="I194" s="2">
         <v>147.22</v>
       </c>
-      <c r="J194">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -8091,12 +7290,8 @@
       <c r="I195" s="2">
         <v>106.25</v>
       </c>
-      <c r="J195">
-        <f t="shared" ref="J195:J258" si="3">IFERROR(IF(RIGHT(H195, 1) = "*", LEFT(H195, LEN(H195) - 1), IF(OR(H195 &lt; 0, H195 &gt; 500), 0, H195)), 0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -8120,12 +7315,8 @@
       <c r="I196" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -8153,12 +7344,8 @@
       <c r="I197" s="2">
         <v>97.71</v>
       </c>
-      <c r="J197">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -8184,12 +7371,8 @@
       <c r="I198" s="2">
         <v>70.64</v>
       </c>
-      <c r="J198">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -8215,12 +7398,8 @@
       <c r="I199" s="2">
         <v>97.69</v>
       </c>
-      <c r="J199" t="str">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -8246,12 +7425,8 @@
       <c r="I200" s="2">
         <v>138.1</v>
       </c>
-      <c r="J200">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -8277,12 +7452,8 @@
       <c r="I201" s="2">
         <v>33.33</v>
       </c>
-      <c r="J201">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -8310,12 +7481,8 @@
       <c r="I202" s="2">
         <v>110.16</v>
       </c>
-      <c r="J202">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -8343,12 +7510,8 @@
       <c r="I203" s="2">
         <v>57.14</v>
       </c>
-      <c r="J203">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -8376,12 +7539,8 @@
       <c r="I204" s="2">
         <v>50</v>
       </c>
-      <c r="J204">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -8409,12 +7568,8 @@
       <c r="I205" s="2">
         <v>105.36</v>
       </c>
-      <c r="J205" t="str">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -8442,12 +7597,8 @@
       <c r="I206" s="2">
         <v>64.290000000000006</v>
       </c>
-      <c r="J206">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -8475,12 +7626,8 @@
       <c r="I207" s="2">
         <v>91.67</v>
       </c>
-      <c r="J207">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -8508,12 +7655,8 @@
       <c r="I208" s="2">
         <v>134.78</v>
       </c>
-      <c r="J208" t="str">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -8541,12 +7684,8 @@
       <c r="I209" s="2">
         <v>0</v>
       </c>
-      <c r="J209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -8574,12 +7713,8 @@
       <c r="I210" s="2">
         <v>121.05</v>
       </c>
-      <c r="J210">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -8605,12 +7740,8 @@
       <c r="I211" s="2">
         <v>107.14</v>
       </c>
-      <c r="J211">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -8636,12 +7767,8 @@
       <c r="I212" s="2">
         <v>41.67</v>
       </c>
-      <c r="J212">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -8667,12 +7794,8 @@
       <c r="I213" s="2">
         <v>60.87</v>
       </c>
-      <c r="J213">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -8698,12 +7821,8 @@
       <c r="I214" s="2">
         <v>138.61000000000001</v>
       </c>
-      <c r="J214" t="str">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -8729,12 +7848,8 @@
       <c r="I215" s="2">
         <v>66.67</v>
       </c>
-      <c r="J215">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -8760,12 +7875,8 @@
       <c r="I216" s="2">
         <v>55</v>
       </c>
-      <c r="J216">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -8791,12 +7902,8 @@
       <c r="I217" s="2">
         <v>0</v>
       </c>
-      <c r="J217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -8822,12 +7929,8 @@
       <c r="I218" s="2">
         <v>69.23</v>
       </c>
-      <c r="J218">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -8853,12 +7956,8 @@
       <c r="I219" s="2">
         <v>72.73</v>
       </c>
-      <c r="J219">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -8884,12 +7983,8 @@
       <c r="I220" s="2">
         <v>42.42</v>
       </c>
-      <c r="J220">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -8917,12 +8012,8 @@
       <c r="I221" s="2">
         <v>63.79</v>
       </c>
-      <c r="J221">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -8948,12 +8039,8 @@
       <c r="I222" s="2">
         <v>85.11</v>
       </c>
-      <c r="J222">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -8979,12 +8066,8 @@
       <c r="I223" s="2">
         <v>118.06</v>
       </c>
-      <c r="J223">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -9010,12 +8093,8 @@
       <c r="I224" s="2">
         <v>61.54</v>
       </c>
-      <c r="J224">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -9041,12 +8120,8 @@
       <c r="I225" s="2">
         <v>0</v>
       </c>
-      <c r="J225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -9072,12 +8147,8 @@
       <c r="I226" s="2">
         <v>103.23</v>
       </c>
-      <c r="J226">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -9103,12 +8174,8 @@
       <c r="I227" s="2">
         <v>124</v>
       </c>
-      <c r="J227" t="str">
-        <f t="shared" si="3"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -9134,12 +8201,8 @@
       <c r="I228" s="2">
         <v>4.3499999999999996</v>
       </c>
-      <c r="J228">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -9165,12 +8228,8 @@
       <c r="I229" s="2">
         <v>20</v>
       </c>
-      <c r="J229">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -9196,12 +8255,8 @@
       <c r="I230" s="2">
         <v>0</v>
       </c>
-      <c r="J230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -9229,12 +8284,8 @@
       <c r="I231" s="2">
         <v>50</v>
       </c>
-      <c r="J231">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -9262,12 +8313,8 @@
       <c r="I232" s="2">
         <v>109.09</v>
       </c>
-      <c r="J232">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -9295,12 +8342,8 @@
       <c r="I233" s="2">
         <v>9.09</v>
       </c>
-      <c r="J233">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -9326,12 +8369,8 @@
       <c r="I234" s="2">
         <v>90.29</v>
       </c>
-      <c r="J234">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -9359,12 +8398,8 @@
       <c r="I235" s="2">
         <v>89.13</v>
       </c>
-      <c r="J235">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -9392,12 +8427,8 @@
       <c r="I236" s="2">
         <v>64.290000000000006</v>
       </c>
-      <c r="J236">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -9425,12 +8456,8 @@
       <c r="I237" s="2">
         <v>121.43</v>
       </c>
-      <c r="J237">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -9456,12 +8483,8 @@
       <c r="I238" s="2">
         <v>14.29</v>
       </c>
-      <c r="J238">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -9487,12 +8510,8 @@
       <c r="I239" s="2">
         <v>104</v>
       </c>
-      <c r="J239">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -9518,12 +8537,8 @@
       <c r="I240" s="2">
         <v>67.739999999999995</v>
       </c>
-      <c r="J240">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -9549,12 +8564,8 @@
       <c r="I241" s="2">
         <v>42.86</v>
       </c>
-      <c r="J241">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -9580,12 +8591,8 @@
       <c r="I242" s="2">
         <v>88.41</v>
       </c>
-      <c r="J242">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -9611,12 +8618,8 @@
       <c r="I243" s="2">
         <v>104.49</v>
       </c>
-      <c r="J243">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -9644,12 +8647,8 @@
       <c r="I244" s="2">
         <v>62.5</v>
       </c>
-      <c r="J244">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -9677,12 +8676,8 @@
       <c r="I245" s="2">
         <v>39.29</v>
       </c>
-      <c r="J245">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -9710,12 +8705,8 @@
       <c r="I246" s="2">
         <v>55.56</v>
       </c>
-      <c r="J246">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -9743,12 +8734,8 @@
       <c r="I247" s="2">
         <v>57.35</v>
       </c>
-      <c r="J247">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -9776,12 +8763,8 @@
       <c r="I248" s="2">
         <v>144</v>
       </c>
-      <c r="J248">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -9809,12 +8792,8 @@
       <c r="I249" s="2">
         <v>97.89</v>
       </c>
-      <c r="J249">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -9842,12 +8821,8 @@
       <c r="I250" s="2">
         <v>83.33</v>
       </c>
-      <c r="J250">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -9873,12 +8848,8 @@
       <c r="I251" s="2">
         <v>71.430000000000007</v>
       </c>
-      <c r="J251">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -9904,12 +8875,8 @@
       <c r="I252" s="2">
         <v>102.7</v>
       </c>
-      <c r="J252">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -9935,12 +8902,8 @@
       <c r="I253" s="2">
         <v>78</v>
       </c>
-      <c r="J253">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -9966,12 +8929,8 @@
       <c r="I254" s="2">
         <v>83.13</v>
       </c>
-      <c r="J254">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -9999,12 +8958,8 @@
       <c r="I255" s="2">
         <v>72.14</v>
       </c>
-      <c r="J255">
-        <f t="shared" si="3"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -10032,12 +8987,8 @@
       <c r="I256" s="2">
         <v>53.33</v>
       </c>
-      <c r="J256">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -10065,12 +9016,8 @@
       <c r="I257" s="2">
         <v>40</v>
       </c>
-      <c r="J257">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -10098,12 +9045,8 @@
       <c r="I258" s="2">
         <v>112.96</v>
       </c>
-      <c r="J258">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -10131,12 +9074,8 @@
       <c r="I259" s="2">
         <v>45.45</v>
       </c>
-      <c r="J259">
-        <f t="shared" ref="J259:J322" si="4">IFERROR(IF(RIGHT(H259, 1) = "*", LEFT(H259, LEN(H259) - 1), IF(OR(H259 &lt; 0, H259 &gt; 500), 0, H259)), 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -10162,12 +9101,8 @@
       <c r="I260" s="2">
         <v>89.8</v>
       </c>
-      <c r="J260">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -10193,12 +9128,8 @@
       <c r="I261" s="2">
         <v>40</v>
       </c>
-      <c r="J261">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -10224,12 +9155,8 @@
       <c r="I262" s="2">
         <v>95.42</v>
       </c>
-      <c r="J262">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -10255,12 +9182,8 @@
       <c r="I263" s="2">
         <v>72.09</v>
       </c>
-      <c r="J263">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -10286,12 +9209,8 @@
       <c r="I264" s="2">
         <v>71.05</v>
       </c>
-      <c r="J264">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -10319,12 +9238,8 @@
       <c r="I265" s="2">
         <v>134.62</v>
       </c>
-      <c r="J265">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -10350,12 +9265,8 @@
       <c r="I266" s="2">
         <v>110.34</v>
       </c>
-      <c r="J266">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -10381,12 +9292,8 @@
       <c r="I267" s="2">
         <v>111.2</v>
       </c>
-      <c r="J267">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -10412,12 +9319,8 @@
       <c r="I268" s="2">
         <v>163.16</v>
       </c>
-      <c r="J268">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -10443,12 +9346,8 @@
       <c r="I269" s="2">
         <v>80</v>
       </c>
-      <c r="J269">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -10474,12 +9373,8 @@
       <c r="I270" s="2">
         <v>100</v>
       </c>
-      <c r="J270" t="str">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -10505,12 +9400,8 @@
       <c r="I271" s="2">
         <v>33.33</v>
       </c>
-      <c r="J271">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -10536,12 +9427,8 @@
       <c r="I272" s="2">
         <v>73.64</v>
       </c>
-      <c r="J272" t="str">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -10567,12 +9454,8 @@
       <c r="I273" s="2">
         <v>93.13</v>
       </c>
-      <c r="J273" t="str">
-        <f t="shared" si="4"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -10598,12 +9481,8 @@
       <c r="I274" s="2">
         <v>0</v>
       </c>
-      <c r="J274">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -10631,12 +9510,8 @@
       <c r="I275" s="2">
         <v>78.290000000000006</v>
       </c>
-      <c r="J275">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -10664,12 +9539,8 @@
       <c r="I276" s="2">
         <v>66.67</v>
       </c>
-      <c r="J276">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -10695,12 +9566,8 @@
       <c r="I277" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J277">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -10728,12 +9595,8 @@
       <c r="I278" s="2">
         <v>15</v>
       </c>
-      <c r="J278">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -10761,12 +9624,8 @@
       <c r="I279" s="2">
         <v>105.71</v>
       </c>
-      <c r="J279">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -10794,12 +9653,8 @@
       <c r="I280" s="2">
         <v>110.61</v>
       </c>
-      <c r="J280">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -10827,12 +9682,8 @@
       <c r="I281" s="2">
         <v>40.479999999999997</v>
       </c>
-      <c r="J281">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -10860,12 +9711,8 @@
       <c r="I282" s="2">
         <v>83.72</v>
       </c>
-      <c r="J282">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -10891,12 +9738,8 @@
       <c r="I283" s="2">
         <v>75</v>
       </c>
-      <c r="J283">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -10924,12 +9767,8 @@
       <c r="I284" s="2">
         <v>86.08</v>
       </c>
-      <c r="J284">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -10955,12 +9794,8 @@
       <c r="I285" s="2">
         <v>129.85</v>
       </c>
-      <c r="J285" t="str">
-        <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -10986,12 +9821,8 @@
       <c r="I286" s="2">
         <v>112.5</v>
       </c>
-      <c r="J286">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -11019,12 +9850,8 @@
       <c r="I287" s="2">
         <v>66.67</v>
       </c>
-      <c r="J287">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -11050,12 +9877,8 @@
       <c r="I288" s="2">
         <v>75.56</v>
       </c>
-      <c r="J288" t="str">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -11081,12 +9904,8 @@
       <c r="I289" s="2">
         <v>92.86</v>
       </c>
-      <c r="J289">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -11112,12 +9931,8 @@
       <c r="I290" s="2">
         <v>11.11</v>
       </c>
-      <c r="J290">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -11143,12 +9958,8 @@
       <c r="I291" s="2">
         <v>70</v>
       </c>
-      <c r="J291">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -11176,12 +9987,8 @@
       <c r="I292" s="2">
         <v>97.22</v>
       </c>
-      <c r="J292" t="str">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -11207,12 +10014,8 @@
       <c r="I293" s="2">
         <v>76</v>
       </c>
-      <c r="J293">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -11238,12 +10041,8 @@
       <c r="I294" s="2">
         <v>124.14</v>
       </c>
-      <c r="J294">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -11271,12 +10070,8 @@
       <c r="I295" s="2">
         <v>110.78</v>
       </c>
-      <c r="J295">
-        <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -11302,12 +10097,8 @@
       <c r="I296" s="2">
         <v>73.680000000000007</v>
       </c>
-      <c r="J296">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -11333,12 +10124,8 @@
       <c r="I297" s="2">
         <v>43.75</v>
       </c>
-      <c r="J297">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -11366,12 +10153,8 @@
       <c r="I298" s="2">
         <v>45</v>
       </c>
-      <c r="J298" t="str">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -11399,12 +10182,8 @@
       <c r="I299" s="2">
         <v>55.17</v>
       </c>
-      <c r="J299">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -11430,12 +10209,8 @@
       <c r="I300" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J300">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -11463,12 +10238,8 @@
       <c r="I301" s="2">
         <v>31.82</v>
       </c>
-      <c r="J301" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -11496,12 +10267,8 @@
       <c r="I302" s="2">
         <v>0</v>
       </c>
-      <c r="J302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -11529,12 +10296,8 @@
       <c r="I303" s="2">
         <v>7.69</v>
       </c>
-      <c r="J303">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -11562,12 +10325,8 @@
       <c r="I304" s="2">
         <v>16.670000000000002</v>
       </c>
-      <c r="J304">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -11593,12 +10352,8 @@
       <c r="I305" s="2">
         <v>72.22</v>
       </c>
-      <c r="J305">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -11624,12 +10379,8 @@
       <c r="I306" s="2">
         <v>61.02</v>
       </c>
-      <c r="J306">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -11655,12 +10406,8 @@
       <c r="I307" s="2">
         <v>89.01</v>
       </c>
-      <c r="J307">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -11686,12 +10433,8 @@
       <c r="I308" s="2">
         <v>100.66</v>
       </c>
-      <c r="J308">
-        <f t="shared" si="4"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -11719,12 +10462,8 @@
       <c r="I309" s="2">
         <v>96.15</v>
       </c>
-      <c r="J309">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -11750,12 +10489,8 @@
       <c r="I310" s="2">
         <v>130.66999999999999</v>
       </c>
-      <c r="J310">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -11783,12 +10518,8 @@
       <c r="I311" s="2">
         <v>41.67</v>
       </c>
-      <c r="J311">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -11814,12 +10545,8 @@
       <c r="I312" s="2">
         <v>80.83</v>
       </c>
-      <c r="J312">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -11845,12 +10572,8 @@
       <c r="I313" s="2">
         <v>93.75</v>
       </c>
-      <c r="J313">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -11878,12 +10601,8 @@
       <c r="I314" s="2">
         <v>82.18</v>
       </c>
-      <c r="J314">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -11909,12 +10628,8 @@
       <c r="I315" s="2">
         <v>80</v>
       </c>
-      <c r="J315">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -11942,12 +10657,8 @@
       <c r="I316" s="2">
         <v>72.73</v>
       </c>
-      <c r="J316" t="str">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -11975,12 +10686,8 @@
       <c r="I317" s="2">
         <v>84.03</v>
       </c>
-      <c r="J317">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -12008,12 +10715,8 @@
       <c r="I318" s="2">
         <v>89.47</v>
       </c>
-      <c r="J318">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -12041,12 +10744,8 @@
       <c r="I319" s="2">
         <v>100</v>
       </c>
-      <c r="J319">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -12074,12 +10773,8 @@
       <c r="I320" s="2">
         <v>97.8</v>
       </c>
-      <c r="J320">
-        <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -12107,12 +10802,8 @@
       <c r="I321" s="2">
         <v>112.09</v>
       </c>
-      <c r="J321">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -12140,12 +10831,8 @@
       <c r="I322" s="2">
         <v>68.180000000000007</v>
       </c>
-      <c r="J322">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -12173,12 +10860,8 @@
       <c r="I323" s="2">
         <v>91.3</v>
       </c>
-      <c r="J323">
-        <f t="shared" ref="J323:J386" si="5">IFERROR(IF(RIGHT(H323, 1) = "*", LEFT(H323, LEN(H323) - 1), IF(OR(H323 &lt; 0, H323 &gt; 500), 0, H323)), 0)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -12204,12 +10887,8 @@
       <c r="I324" s="2">
         <v>74.58</v>
       </c>
-      <c r="J324">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -12237,12 +10916,8 @@
       <c r="I325" s="2">
         <v>90.53</v>
       </c>
-      <c r="J325">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -12270,12 +10945,8 @@
       <c r="I326" s="2">
         <v>83.33</v>
       </c>
-      <c r="J326">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -12303,12 +10974,8 @@
       <c r="I327" s="2">
         <v>37.5</v>
       </c>
-      <c r="J327">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -12336,12 +11003,8 @@
       <c r="I328" s="2">
         <v>36.36</v>
       </c>
-      <c r="J328">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -12369,12 +11032,8 @@
       <c r="I329" s="2">
         <v>67.5</v>
       </c>
-      <c r="J329">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -12400,12 +11059,8 @@
       <c r="I330" s="2">
         <v>80</v>
       </c>
-      <c r="J330">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -12433,12 +11088,8 @@
       <c r="I331" s="2">
         <v>104.44</v>
       </c>
-      <c r="J331">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -12464,12 +11115,8 @@
       <c r="I332" s="2">
         <v>0</v>
       </c>
-      <c r="J332">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -12497,12 +11144,8 @@
       <c r="I333" s="2">
         <v>53.85</v>
       </c>
-      <c r="J333">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -12530,12 +11173,8 @@
       <c r="I334" s="2">
         <v>77.08</v>
       </c>
-      <c r="J334">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -12561,12 +11200,8 @@
       <c r="I335" s="2">
         <v>72</v>
       </c>
-      <c r="J335">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -12594,12 +11229,8 @@
       <c r="I336" s="2">
         <v>84.62</v>
       </c>
-      <c r="J336">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -12625,12 +11256,8 @@
       <c r="I337" s="2">
         <v>65.08</v>
       </c>
-      <c r="J337" t="str">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -12658,12 +11285,8 @@
       <c r="I338" s="2">
         <v>75.73</v>
       </c>
-      <c r="J338">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -12691,12 +11314,8 @@
       <c r="I339" s="2">
         <v>85.71</v>
       </c>
-      <c r="J339">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -12724,12 +11343,8 @@
       <c r="I340" s="2">
         <v>74</v>
       </c>
-      <c r="J340">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -12757,12 +11372,8 @@
       <c r="I341" s="2">
         <v>94.12</v>
       </c>
-      <c r="J341">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -12788,12 +11399,8 @@
       <c r="I342" s="2">
         <v>59.38</v>
       </c>
-      <c r="J342">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -12821,12 +11428,8 @@
       <c r="I343" s="2">
         <v>111.9</v>
       </c>
-      <c r="J343">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -12852,12 +11455,8 @@
       <c r="I344" s="2">
         <v>100</v>
       </c>
-      <c r="J344">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -12883,12 +11482,8 @@
       <c r="I345" s="2">
         <v>25</v>
       </c>
-      <c r="J345">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -12914,12 +11509,8 @@
       <c r="I346" s="2">
         <v>54.55</v>
       </c>
-      <c r="J346">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -12945,12 +11536,8 @@
       <c r="I347" s="2">
         <v>94.62</v>
       </c>
-      <c r="J347">
-        <f t="shared" si="5"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -12976,12 +11563,8 @@
       <c r="I348" s="2">
         <v>10</v>
       </c>
-      <c r="J348">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -13007,12 +11590,8 @@
       <c r="I349" s="2">
         <v>60</v>
       </c>
-      <c r="J349">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -13038,12 +11617,8 @@
       <c r="I350" s="2">
         <v>96.88</v>
       </c>
-      <c r="J350">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -13071,12 +11646,8 @@
       <c r="I351" s="2">
         <v>97.1</v>
       </c>
-      <c r="J351" t="str">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -13102,12 +11673,8 @@
       <c r="I352" s="2">
         <v>66.67</v>
       </c>
-      <c r="J352">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -13133,12 +11700,8 @@
       <c r="I353" s="2">
         <v>57.89</v>
       </c>
-      <c r="J353">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -13164,12 +11727,8 @@
       <c r="I354" s="2">
         <v>63.33</v>
       </c>
-      <c r="J354">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -13195,12 +11754,8 @@
       <c r="I355" s="2">
         <v>81.25</v>
       </c>
-      <c r="J355">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -13226,12 +11781,8 @@
       <c r="I356" s="2">
         <v>22.22</v>
       </c>
-      <c r="J356">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -13259,12 +11810,8 @@
       <c r="I357" s="2">
         <v>9.09</v>
       </c>
-      <c r="J357">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -13292,12 +11839,8 @@
       <c r="I358" s="2">
         <v>13.33</v>
       </c>
-      <c r="J358">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -13325,12 +11868,8 @@
       <c r="I359" s="2">
         <v>68.180000000000007</v>
       </c>
-      <c r="J359">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -13356,12 +11895,8 @@
       <c r="I360" s="2">
         <v>88.5</v>
       </c>
-      <c r="J360">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -13387,12 +11922,8 @@
       <c r="I361" s="2">
         <v>97.67</v>
       </c>
-      <c r="J361">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -13420,12 +11951,8 @@
       <c r="I362" s="2">
         <v>91.35</v>
       </c>
-      <c r="J362">
-        <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -13453,12 +11980,8 @@
       <c r="I363" s="2">
         <v>0</v>
       </c>
-      <c r="J363">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -13484,12 +12007,8 @@
       <c r="I364" s="2">
         <v>66.67</v>
       </c>
-      <c r="J364" t="str">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -13517,12 +12036,8 @@
       <c r="I365" s="2">
         <v>95.27</v>
       </c>
-      <c r="J365" t="str">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -13550,12 +12065,8 @@
       <c r="I366" s="2">
         <v>70.59</v>
       </c>
-      <c r="J366">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -13583,12 +12094,8 @@
       <c r="I367" s="2">
         <v>63.73</v>
       </c>
-      <c r="J367">
-        <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -13616,12 +12123,8 @@
       <c r="I368" s="2">
         <v>40</v>
       </c>
-      <c r="J368">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -13649,12 +12152,8 @@
       <c r="I369" s="2">
         <v>85.37</v>
       </c>
-      <c r="J369">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -13682,12 +12181,8 @@
       <c r="I370" s="2">
         <v>64.44</v>
       </c>
-      <c r="J370">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -13715,12 +12210,8 @@
       <c r="I371" s="2">
         <v>38.46</v>
       </c>
-      <c r="J371">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -13748,12 +12239,8 @@
       <c r="I372" s="2">
         <v>68.63</v>
       </c>
-      <c r="J372">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -13779,12 +12266,8 @@
       <c r="I373" s="2">
         <v>22.22</v>
       </c>
-      <c r="J373">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -13810,12 +12293,8 @@
       <c r="I374" s="2">
         <v>33.33</v>
       </c>
-      <c r="J374">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -13841,12 +12320,8 @@
       <c r="I375" s="2">
         <v>56.7</v>
       </c>
-      <c r="J375">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -13872,12 +12347,8 @@
       <c r="I376" s="2">
         <v>81.58</v>
       </c>
-      <c r="J376">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -13905,12 +12376,8 @@
       <c r="I377" s="2">
         <v>0</v>
       </c>
-      <c r="J377">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -13938,12 +12405,8 @@
       <c r="I378" s="2">
         <v>90.91</v>
       </c>
-      <c r="J378">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -13969,12 +12432,8 @@
       <c r="I379" s="2">
         <v>131.58000000000001</v>
       </c>
-      <c r="J379" t="str">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -14000,12 +12459,8 @@
       <c r="I380" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J380">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -14031,12 +12486,8 @@
       <c r="I381" s="2">
         <v>88.52</v>
       </c>
-      <c r="J381">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -14062,12 +12513,8 @@
       <c r="I382" s="2">
         <v>12.5</v>
       </c>
-      <c r="J382">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -14093,12 +12540,8 @@
       <c r="I383" s="2">
         <v>26.92</v>
       </c>
-      <c r="J383">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -14124,12 +12567,8 @@
       <c r="I384" s="2">
         <v>196.55</v>
       </c>
-      <c r="J384" t="str">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -14155,12 +12594,8 @@
       <c r="I385" s="2">
         <v>0</v>
       </c>
-      <c r="J385">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -14186,12 +12621,8 @@
       <c r="I386" s="2">
         <v>133.33000000000001</v>
       </c>
-      <c r="J386">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -14217,12 +12648,8 @@
       <c r="I387" s="2">
         <v>69.23</v>
       </c>
-      <c r="J387">
-        <f t="shared" ref="J387:J450" si="6">IFERROR(IF(RIGHT(H387, 1) = "*", LEFT(H387, LEN(H387) - 1), IF(OR(H387 &lt; 0, H387 &gt; 500), 0, H387)), 0)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -14248,12 +12675,8 @@
       <c r="I388" s="2">
         <v>87.74</v>
       </c>
-      <c r="J388">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -14279,12 +12702,8 @@
       <c r="I389" s="2">
         <v>100</v>
       </c>
-      <c r="J389">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -14312,12 +12731,8 @@
       <c r="I390" s="2">
         <v>51.52</v>
       </c>
-      <c r="J390">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -14345,12 +12760,8 @@
       <c r="I391" s="2">
         <v>88.39</v>
       </c>
-      <c r="J391">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -14376,12 +12787,8 @@
       <c r="I392" s="2">
         <v>42.11</v>
       </c>
-      <c r="J392">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -14409,12 +12816,8 @@
       <c r="I393" s="2">
         <v>63.95</v>
       </c>
-      <c r="J393">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -14440,12 +12843,8 @@
       <c r="I394" s="2">
         <v>120.34</v>
       </c>
-      <c r="J394">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -14471,12 +12870,8 @@
       <c r="I395" s="2">
         <v>116.05</v>
       </c>
-      <c r="J395">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -14502,12 +12897,8 @@
       <c r="I396" s="2">
         <v>65.22</v>
       </c>
-      <c r="J396">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -14535,12 +12926,8 @@
       <c r="I397" s="2">
         <v>0</v>
       </c>
-      <c r="J397">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -14566,12 +12953,8 @@
       <c r="I398" s="2">
         <v>64</v>
       </c>
-      <c r="J398">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -14597,12 +12980,8 @@
       <c r="I399" s="2">
         <v>60.56</v>
       </c>
-      <c r="J399">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -14628,12 +13007,8 @@
       <c r="I400" s="2">
         <v>66.39</v>
       </c>
-      <c r="J400">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -14659,12 +13034,8 @@
       <c r="I401" s="2">
         <v>64.38</v>
       </c>
-      <c r="J401">
-        <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -14690,12 +13061,8 @@
       <c r="I402" s="2">
         <v>100</v>
       </c>
-      <c r="J402">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -14723,12 +13090,8 @@
       <c r="I403" s="2">
         <v>58.33</v>
       </c>
-      <c r="J403">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -14754,12 +13117,8 @@
       <c r="I404" s="2">
         <v>57.14</v>
       </c>
-      <c r="J404">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -14787,12 +13146,8 @@
       <c r="I405" s="2">
         <v>108.79</v>
       </c>
-      <c r="J405">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -14818,12 +13173,8 @@
       <c r="I406" s="2">
         <v>107.41</v>
       </c>
-      <c r="J406">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -14851,12 +13202,8 @@
       <c r="I407" s="2">
         <v>95.1</v>
       </c>
-      <c r="J407">
-        <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -14884,12 +13231,8 @@
       <c r="I408" s="2">
         <v>111.11</v>
       </c>
-      <c r="J408">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -14917,12 +13260,8 @@
       <c r="I409" s="2">
         <v>58.82</v>
       </c>
-      <c r="J409">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -14950,12 +13289,8 @@
       <c r="I410" s="2">
         <v>67.31</v>
       </c>
-      <c r="J410">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -14983,12 +13318,8 @@
       <c r="I411" s="2">
         <v>81.48</v>
       </c>
-      <c r="J411">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -15014,12 +13345,8 @@
       <c r="I412" s="2">
         <v>106.67</v>
       </c>
-      <c r="J412">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -15047,12 +13374,8 @@
       <c r="I413" s="2">
         <v>33.33</v>
       </c>
-      <c r="J413">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -15080,12 +13403,8 @@
       <c r="I414" s="2">
         <v>0</v>
       </c>
-      <c r="J414">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -15113,12 +13432,8 @@
       <c r="I415" s="2">
         <v>66.67</v>
       </c>
-      <c r="J415">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -15144,12 +13459,8 @@
       <c r="I416" s="2">
         <v>116.67</v>
       </c>
-      <c r="J416">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -15177,12 +13488,8 @@
       <c r="I417" s="2">
         <v>97.5</v>
       </c>
-      <c r="J417" t="str">
-        <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -15210,12 +13517,8 @@
       <c r="I418" s="2">
         <v>75.209999999999994</v>
       </c>
-      <c r="J418">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -15243,12 +13546,8 @@
       <c r="I419" s="2">
         <v>52.38</v>
       </c>
-      <c r="J419">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -15276,12 +13575,8 @@
       <c r="I420" s="2">
         <v>87.72</v>
       </c>
-      <c r="J420">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -15307,12 +13602,8 @@
       <c r="I421" s="2">
         <v>31.25</v>
       </c>
-      <c r="J421">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -15340,12 +13631,8 @@
       <c r="I422" s="2">
         <v>66.67</v>
       </c>
-      <c r="J422">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -15373,12 +13660,8 @@
       <c r="I423" s="2">
         <v>58.33</v>
       </c>
-      <c r="J423">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -15406,12 +13689,8 @@
       <c r="I424" s="2">
         <v>86.96</v>
       </c>
-      <c r="J424">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -15439,12 +13718,8 @@
       <c r="I425" s="2">
         <v>88.41</v>
       </c>
-      <c r="J425">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -15472,12 +13747,8 @@
       <c r="I426" s="2">
         <v>122.56</v>
       </c>
-      <c r="J426" t="str">
-        <f t="shared" si="6"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -15505,12 +13776,8 @@
       <c r="I427" s="2">
         <v>83.64</v>
       </c>
-      <c r="J427">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -15538,12 +13805,8 @@
       <c r="I428" s="2">
         <v>81.819999999999993</v>
       </c>
-      <c r="J428">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -15571,12 +13834,8 @@
       <c r="I429" s="2">
         <v>103.76</v>
       </c>
-      <c r="J429">
-        <f t="shared" si="6"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -15604,12 +13863,8 @@
       <c r="I430" s="2">
         <v>57.14</v>
       </c>
-      <c r="J430">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -15635,12 +13890,8 @@
       <c r="I431" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J431">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -15666,12 +13917,8 @@
       <c r="I432" s="2">
         <v>48.28</v>
       </c>
-      <c r="J432">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -15699,12 +13946,8 @@
       <c r="I433" s="2">
         <v>50</v>
       </c>
-      <c r="J433">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -15732,12 +13975,8 @@
       <c r="I434" s="2">
         <v>68.09</v>
       </c>
-      <c r="J434">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -15765,12 +14004,8 @@
       <c r="I435" s="2">
         <v>58.82</v>
       </c>
-      <c r="J435">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -15798,12 +14033,8 @@
       <c r="I436" s="2">
         <v>124.11</v>
       </c>
-      <c r="J436">
-        <f t="shared" si="6"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -15829,12 +14060,8 @@
       <c r="I437" s="2">
         <v>58.82</v>
       </c>
-      <c r="J437">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -15860,12 +14087,8 @@
       <c r="I438" s="2">
         <v>109.52</v>
       </c>
-      <c r="J438">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -15893,12 +14116,8 @@
       <c r="I439" s="2">
         <v>82.69</v>
       </c>
-      <c r="J439">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -15926,12 +14145,8 @@
       <c r="I440" s="2">
         <v>92.31</v>
       </c>
-      <c r="J440" t="str">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -15959,12 +14174,8 @@
       <c r="I441" s="2">
         <v>100</v>
       </c>
-      <c r="J441">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -15992,12 +14203,8 @@
       <c r="I442" s="2">
         <v>80</v>
       </c>
-      <c r="J442">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -16025,12 +14232,8 @@
       <c r="I443" s="2">
         <v>136.05000000000001</v>
       </c>
-      <c r="J443" t="str">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -16058,12 +14261,8 @@
       <c r="I444" s="2">
         <v>63.64</v>
       </c>
-      <c r="J444">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -16091,12 +14290,8 @@
       <c r="I445" s="2">
         <v>54.55</v>
       </c>
-      <c r="J445">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -16124,12 +14319,8 @@
       <c r="I446" s="2">
         <v>96.55</v>
       </c>
-      <c r="J446">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -16157,12 +14348,8 @@
       <c r="I447" s="2">
         <v>104.35</v>
       </c>
-      <c r="J447">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -16190,12 +14377,8 @@
       <c r="I448" s="2">
         <v>67.86</v>
       </c>
-      <c r="J448">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -16223,12 +14406,8 @@
       <c r="I449" s="2">
         <v>122.73</v>
       </c>
-      <c r="J449">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -16256,12 +14435,8 @@
       <c r="I450" s="2">
         <v>109.9</v>
       </c>
-      <c r="J450">
-        <f t="shared" si="6"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -16289,12 +14464,8 @@
       <c r="I451" s="2">
         <v>50</v>
       </c>
-      <c r="J451">
-        <f t="shared" ref="J451:J464" si="7">IFERROR(IF(RIGHT(H451, 1) = "*", LEFT(H451, LEN(H451) - 1), IF(OR(H451 &lt; 0, H451 &gt; 500), 0, H451)), 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -16322,12 +14493,8 @@
       <c r="I452" s="2">
         <v>77.94</v>
       </c>
-      <c r="J452">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -16355,12 +14522,8 @@
       <c r="I453" s="2">
         <v>73.91</v>
       </c>
-      <c r="J453">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -16388,12 +14551,8 @@
       <c r="I454" s="2">
         <v>128.57</v>
       </c>
-      <c r="J454">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -16421,12 +14580,8 @@
       <c r="I455" s="2">
         <v>33.33</v>
       </c>
-      <c r="J455">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -16454,12 +14609,8 @@
       <c r="I456" s="2">
         <v>76.19</v>
       </c>
-      <c r="J456">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -16487,12 +14638,8 @@
       <c r="I457" s="2">
         <v>62.5</v>
       </c>
-      <c r="J457">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -16520,12 +14667,8 @@
       <c r="I458" s="2">
         <v>25</v>
       </c>
-      <c r="J458">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -16553,12 +14696,8 @@
       <c r="I459" s="2">
         <v>95.65</v>
       </c>
-      <c r="J459">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -16586,12 +14725,8 @@
       <c r="I460" s="2">
         <v>93.33</v>
       </c>
-      <c r="J460">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -16619,12 +14754,8 @@
       <c r="I461" s="2">
         <v>130</v>
       </c>
-      <c r="J461">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -16652,12 +14783,8 @@
       <c r="I462" s="2">
         <v>31.58</v>
       </c>
-      <c r="J462">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -16685,12 +14812,8 @@
       <c r="I463" s="2">
         <v>77.55</v>
       </c>
-      <c r="J463">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -16717,10 +14840,6 @@
       </c>
       <c r="I464" s="2">
         <v>108.33</v>
-      </c>
-      <c r="J464">
-        <f t="shared" si="7"/>
-        <v>52</v>
       </c>
     </row>
   </sheetData>
